--- a/01.训练记录/每日体能训练记录.xlsx
+++ b/01.训练记录/每日体能训练记录.xlsx
@@ -3,13 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{76EF1777-4C09-44DB-9BEA-163864947CD0}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{6C635723-326C-41EA-AB3B-DD02E8C05CF5}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="训练项目说明" sheetId="2" r:id="rId1"/>
-    <sheet name="第一周" sheetId="1" r:id="rId2"/>
+    <sheet name="第一周" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -21,59 +20,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
-  <si>
-    <t>Day 1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Day 2</t>
-  </si>
-  <si>
-    <t>Day 3</t>
-  </si>
-  <si>
-    <t>Day 4</t>
-  </si>
-  <si>
-    <t>Day 5</t>
-  </si>
-  <si>
-    <t>Day 6</t>
-  </si>
-  <si>
-    <t>Day 7</t>
-  </si>
-  <si>
-    <t>数量</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="8">
   <si>
     <t>训练内容</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>俯卧撑</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>上下运动</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>20个/组</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>30/组</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>拉升</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>分钟</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -89,15 +38,19 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>时间</t>
+    <t>HIIT/Tabata（分钟）</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>20分钟/组</t>
+    <t>快慢走（分钟）</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Tabata</t>
+    <t>拉伸运动（分钟）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>力量训练（分钟）</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -105,7 +58,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -136,7 +89,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="16"/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="等线"/>
       <family val="3"/>
@@ -147,10 +100,17 @@
       <b/>
       <sz val="16"/>
       <color rgb="FF006100"/>
-      <name val="等线"/>
+      <name val="新宋体"/>
       <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="新宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="3">
@@ -166,7 +126,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -189,6 +149,43 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -196,27 +193,36 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="58" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -235,72 +241,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>45720</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>152211</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="图片 1" descr="https://content.active.com/Assets/Active.com+Content+Site+Digital+Assets/Fitness/580x350/Bodyweight+Tabata+Workout/Slide+8.jpg">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E89C289-2FBF-42E4-ADC3-E55625EFF605}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="45720" y="7620"/>
-          <a:ext cx="5440680" cy="3474531"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -565,233 +505,283 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A33AF82-E693-49B6-9B87-74014CDB3ED9}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="B21" sqref="B21:B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="12.44140625" customWidth="1"/>
-    <col min="3" max="3" width="20.5546875" customWidth="1"/>
-    <col min="4" max="4" width="18.21875" customWidth="1"/>
-    <col min="5" max="5" width="20.5546875" customWidth="1"/>
-    <col min="6" max="6" width="18.21875" customWidth="1"/>
-    <col min="7" max="7" width="20.5546875" customWidth="1"/>
-    <col min="8" max="8" width="18.21875" customWidth="1"/>
-    <col min="9" max="9" width="20.5546875" customWidth="1"/>
-    <col min="10" max="10" width="18.21875" customWidth="1"/>
+    <col min="3" max="3" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="20.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2"/>
-      <c r="B1" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="4" t="s">
+      <c r="B1" s="8"/>
+      <c r="C1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="11"/>
+    </row>
+    <row r="2" spans="1:6" s="1" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="3"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" s="1" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A2" s="5"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" s="1" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A3" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>15</v>
+    </row>
+    <row r="3" spans="1:6" s="1" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A3" s="4">
+        <v>43202</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>1</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-    </row>
-    <row r="4" spans="1:10" s="1" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:6" s="1" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A4" s="7"/>
-      <c r="B4" s="8" t="s">
-        <v>16</v>
+      <c r="B4" s="5" t="s">
+        <v>2</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-    </row>
-    <row r="5" spans="1:10" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:6" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7"/>
-      <c r="B5" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-    </row>
-    <row r="6" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A6" s="9" t="s">
+      <c r="B5" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="6">
+        <v>7.5</v>
+      </c>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+    </row>
+    <row r="6" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A6" s="4">
+        <v>43203</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-    </row>
-    <row r="7" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A7" s="9" t="s">
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+    </row>
+    <row r="7" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A7" s="7"/>
+      <c r="B7" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="9"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-    </row>
-    <row r="8" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A8" s="9" t="s">
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+    </row>
+    <row r="8" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A8" s="7"/>
+      <c r="B8" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-    </row>
-    <row r="9" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A9" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" s="9"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-    </row>
-    <row r="10" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A10" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" s="9"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-    </row>
-    <row r="11" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A11" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11" s="9"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+    </row>
+    <row r="9" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A9" s="4">
+        <v>43204</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+    </row>
+    <row r="10" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A10" s="7"/>
+      <c r="B10" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+    </row>
+    <row r="11" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A11" s="7"/>
+      <c r="B11" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+    </row>
+    <row r="12" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A12" s="4">
+        <v>43205</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+    </row>
+    <row r="13" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A13" s="7"/>
+      <c r="B13" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+    </row>
+    <row r="14" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A14" s="7"/>
+      <c r="B14" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+    </row>
+    <row r="15" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A15" s="4">
+        <v>43206</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+    </row>
+    <row r="16" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A16" s="7"/>
+      <c r="B16" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+    </row>
+    <row r="17" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A17" s="7"/>
+      <c r="B17" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+    </row>
+    <row r="18" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A18" s="4">
+        <v>43207</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+    </row>
+    <row r="19" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A19" s="7"/>
+      <c r="B19" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+    </row>
+    <row r="20" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A20" s="7"/>
+      <c r="B20" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+    </row>
+    <row r="21" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A21" s="4">
+        <v>43208</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+    </row>
+    <row r="22" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A22" s="7"/>
+      <c r="B22" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+    </row>
+    <row r="23" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A23" s="7"/>
+      <c r="B23" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="9">
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="C1:F1"/>
     <mergeCell ref="A3:A5"/>
     <mergeCell ref="B1:B2"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="A12:A14"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
